--- a/tables/NSGA2_table.xlsx
+++ b/tables/NSGA2_table.xlsx
@@ -457,422 +457,422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01887197970322836</v>
+        <v>0.0134476373228423</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.03567824945360842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02249189940603631</v>
+        <v>0.03950139099941256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3522849082946777</v>
+        <v>0.3589637279510498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.007756601893316075</v>
+        <v>0.02037542752902888</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.0344869639908293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04167571472578085</v>
+        <v>0.05003851818961321</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3535876274108887</v>
+        <v>0.3544814586639404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01350591042790471</v>
+        <v>0.02584897349958703</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.03462036535055178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02767079827741195</v>
+        <v>0.06908333267360756</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3517074584960938</v>
+        <v>0.3496179580688477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01741396850584491</v>
+        <v>0.03675216552017362</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.03039116045069117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06618539648783524</v>
+        <v>0.07749157478896557</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3491361141204834</v>
+        <v>0.3558573722839355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.009453309235196709</v>
+        <v>0.009007069198368285</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.03796819818578912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05653705013026467</v>
+        <v>0.03911866199851838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3488700389862061</v>
+        <v>0.3497245311737061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01285361651501298</v>
+        <v>0.01360155699221888</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.03606248325425955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04922251856518997</v>
+        <v>0.05533408498966261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3500876426696777</v>
+        <v>0.350834846496582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.007298742778652031</v>
+        <v>0.1024643442396624</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.01709679828741877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05179888441659274</v>
+        <v>0.02875062233767501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3411226272583008</v>
+        <v>0.3513290882110596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01503337839380192</v>
+        <v>0.01221528302758445</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.03599598651876512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04806800546566424</v>
+        <v>0.03063444211617274</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3402121067047119</v>
+        <v>0.3585910797119141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01037340226838165</v>
+        <v>0.01007655376192006</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.03740084306140185</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06645034387289794</v>
+        <v>0.05306984635328704</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3396577835083008</v>
+        <v>0.359234094619751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02181053747849992</v>
+        <v>0.006913890658282134</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.04014155759659471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06659115784234119</v>
+        <v>0.06240627621437941</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3428215980529785</v>
+        <v>0.3541758060455322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01144410172715732</v>
+        <v>0.02359426553017369</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.03224608783916051</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05811658011190569</v>
+        <v>0.03301140531639587</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3423788547515869</v>
+        <v>0.3520631790161133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.009734095951498413</v>
+        <v>0.01409885106317325</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.03681703414182966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02439742474439623</v>
+        <v>0.03404850903700667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3507404327392578</v>
+        <v>0.3517591953277588</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02877640668024701</v>
+        <v>0.01575361348429389</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.03553650388791221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05298089360970141</v>
+        <v>0.08482746298774464</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3478963375091553</v>
+        <v>0.349041223526001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.009129304025872637</v>
+        <v>0.0552181738128092</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.02578281334614708</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04820746163674036</v>
+        <v>0.03702834083441643</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3485167026519775</v>
+        <v>0.3504819869995117</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01194601557071707</v>
+        <v>0.02086194219008965</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.03359057522898354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03553646703308042</v>
+        <v>0.03819212931552087</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3485751152038574</v>
+        <v>0.356799840927124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.008565436509717632</v>
+        <v>0.01838241387334182</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.03362354991499837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05161008923116682</v>
+        <v>0.02881206318872775</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3480861186981201</v>
+        <v>0.3475849628448486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01075645241660002</v>
+        <v>0.01618443950950322</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.03628275005395792</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05243776642882946</v>
+        <v>0.05700863465628747</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3474831581115723</v>
+        <v>0.3481519222259521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0120231179589931</v>
+        <v>0.02927933495681315</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.03058945680405154</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05036778048161183</v>
+        <v>0.03223925584933759</v>
       </c>
       <c r="D19" t="n">
-        <v>0.346501350402832</v>
+        <v>0.3505406379699707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0128170917109078</v>
+        <v>0.03583545698233353</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.03223314308480926</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02813329944344093</v>
+        <v>0.14302063263829</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3479905128479004</v>
+        <v>0.3495619297027588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.01748074948378271</v>
+        <v>0.01218289379677165</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.03570603936061344</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06400829628067287</v>
+        <v>0.03779172997495078</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3541500568389893</v>
+        <v>0.3487904071807861</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03705145124510822</v>
+        <v>0.07180646104376037</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.02422663173604538</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07425021479800106</v>
+        <v>0.08762949458395454</v>
       </c>
       <c r="D22" t="n">
-        <v>0.348515510559082</v>
+        <v>0.3522305488586426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.06471794262284777</v>
+        <v>0.03488236920857359</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.03239342159212057</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03698475072489809</v>
+        <v>0.06791770443352997</v>
       </c>
       <c r="D23" t="n">
-        <v>0.348395824432373</v>
+        <v>0.3507692813873291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.009546642219491279</v>
+        <v>0.01397348528642392</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.03720847836160843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04437160407265872</v>
+        <v>0.05331849776125951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3696517944335938</v>
+        <v>0.3532161712646484</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.03141708271488778</v>
+        <v>0.0157990656317748</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.03439097439448372</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008996753973300773</v>
+        <v>0.07184992971853338</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3879258632659912</v>
+        <v>0.3542351722717285</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.01444575629566612</v>
+        <v>0.03751241444670077</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.02874444656866811</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02818125406853657</v>
+        <v>0.1214495067242076</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3922929763793945</v>
+        <v>0.3509867191314697</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01625602640919801</v>
+        <v>0.01113249235289721</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.03798820946488157</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03250551649432507</v>
+        <v>0.05114799854058638</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3914189338684082</v>
+        <v>0.3510234355926514</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.01082279458677258</v>
+        <v>0.01223369335578811</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.0380923770720104</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06991774143482832</v>
+        <v>0.06244444433649448</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3912613391876221</v>
+        <v>0.3669173717498779</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.009753806476579172</v>
+        <v>0.02478035828502972</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.03157566826448637</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04107799106804844</v>
+        <v>0.06512730793347375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3905956745147705</v>
+        <v>0.3525388240814209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.009788877236718601</v>
+        <v>0.03564865852096275</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.02892383598071027</v>
       </c>
       <c r="C30" t="n">
-        <v>0.046063026963382</v>
+        <v>0.00771663227476364</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3973712921142578</v>
+        <v>0.3558177947998047</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.02256089505416528</v>
+        <v>0.0183514164901726</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.03385695352618016</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05167617389777984</v>
+        <v>0.04143586697842101</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4216783046722412</v>
+        <v>0.3539834022521973</v>
       </c>
     </row>
   </sheetData>

--- a/tables/NSGA2_table.xlsx
+++ b/tables/NSGA2_table.xlsx
@@ -457,422 +457,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0134476373228423</v>
+        <v>0.02529776206831398</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03567824945360842</v>
+        <v>0.002455343710418116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03950139099941256</v>
+        <v>0.218537049278086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3589637279510498</v>
+        <v>0.3418350219726562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02037542752902888</v>
+        <v>0.04463376223139923</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0344869639908293</v>
+        <v>0.0008650063869981206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05003851818961321</v>
+        <v>0.2274334821515518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3544814586639404</v>
+        <v>0.3425419330596924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02584897349958703</v>
+        <v>0.05459702560906282</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03462036535055178</v>
+        <v>0.0001433275979338297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06908333267360756</v>
+        <v>0.2950256730661995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3496179580688477</v>
+        <v>0.3456907272338867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.03675216552017362</v>
+        <v>0.05118038318710977</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03039116045069117</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07749157478896557</v>
+        <v>0.169038603418731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3558573722839355</v>
+        <v>0.3443689346313477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.009007069198368285</v>
+        <v>0.03446743507471235</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03796819818578912</v>
+        <v>0.001296880303608739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03911866199851838</v>
+        <v>0.2306719257105379</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3497245311737061</v>
+        <v>0.3373932838439941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01360155699221888</v>
+        <v>0.1142541965795849</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03606248325425955</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05533408498966261</v>
+        <v>0.1224532246911015</v>
       </c>
       <c r="D7" t="n">
-        <v>0.350834846496582</v>
+        <v>0.3377668857574463</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1024643442396624</v>
+        <v>0.06657277071070167</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01709679828741877</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02875062233767501</v>
+        <v>0.1695430151023139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3513290882110596</v>
+        <v>0.3374738693237305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01221528302758445</v>
+        <v>0.1684162550595936</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03599598651876512</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03063444211617274</v>
+        <v>0.2391819727009813</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3585910797119141</v>
+        <v>0.3379194736480713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01007655376192006</v>
+        <v>0.1936523375267723</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03740084306140185</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05306984635328704</v>
+        <v>0.06502705814982497</v>
       </c>
       <c r="D10" t="n">
-        <v>0.359234094619751</v>
+        <v>0.3384270668029785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.006913890658282134</v>
+        <v>0.0402772774172282</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04014155759659471</v>
+        <v>0.00286451504538355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06240627621437941</v>
+        <v>0.2622694072177487</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3541758060455322</v>
+        <v>0.336721658706665</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.02359426553017369</v>
+        <v>0.1630720587632125</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03224608783916051</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03301140531639587</v>
+        <v>0.1590463548931175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3520631790161133</v>
+        <v>0.3378803730010986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01409885106317325</v>
+        <v>0.04266468915056142</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03681703414182966</v>
+        <v>0.001712340311951477</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03404850903700667</v>
+        <v>0.1752331792450016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3517591953277588</v>
+        <v>0.3366274833679199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.01575361348429389</v>
+        <v>0.03134489928953774</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03553650388791221</v>
+        <v>0.00235246863390997</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08482746298774464</v>
+        <v>0.2525365238459605</v>
       </c>
       <c r="D14" t="n">
-        <v>0.349041223526001</v>
+        <v>0.3359951972961426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0552181738128092</v>
+        <v>0.4511588977545308</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02578281334614708</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03702834083441643</v>
+        <v>0.006784778731624265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3504819869995117</v>
+        <v>0.3368887901306152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02086194219008965</v>
+        <v>0.03393062183385857</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03359057522898354</v>
+        <v>0.002596052220014263</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03819212931552087</v>
+        <v>0.239207378178509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.356799840927124</v>
+        <v>0.3387625217437744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01838241387334182</v>
+        <v>0.03979311036069148</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03362354991499837</v>
+        <v>0.004490198716752852</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02881206318872775</v>
+        <v>0.2851999902444246</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3475849628448486</v>
+        <v>0.337268590927124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01618443950950322</v>
+        <v>0.04159751620954757</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03628275005395792</v>
+        <v>0.000641295723090975</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05700863465628747</v>
+        <v>0.2550529964308669</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3481519222259521</v>
+        <v>0.336763858795166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.02927933495681315</v>
+        <v>0.07546462839452593</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03058945680405154</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03223925584933759</v>
+        <v>0.1737870402407185</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3505406379699707</v>
+        <v>0.33811354637146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.03583545698233353</v>
+        <v>0.04169360877626811</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03223314308480926</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.14302063263829</v>
+        <v>0.1714412141654228</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3495619297027588</v>
+        <v>0.3368198871612549</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.01218289379677165</v>
+        <v>0.04222814719467281</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03570603936061344</v>
+        <v>0.003967413425514431</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03779172997495078</v>
+        <v>0.2664929772567778</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3487904071807861</v>
+        <v>0.3351242542266846</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.07180646104376037</v>
+        <v>0.0382340043171995</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02422663173604538</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08762949458395454</v>
+        <v>0.2070745558917406</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3522305488586426</v>
+        <v>0.3359251022338867</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.03488236920857359</v>
+        <v>0.05034436016551276</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03239342159212057</v>
+        <v>0.002098872261260772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06791770443352997</v>
+        <v>0.2702080686765619</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3507692813873291</v>
+        <v>0.3366670608520508</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.01397348528642392</v>
+        <v>0.1509679436875473</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03720847836160843</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05331849776125951</v>
+        <v>0.09571001286408792</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3532161712646484</v>
+        <v>0.3368556499481201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0157990656317748</v>
+        <v>0.2380682195439401</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03439097439448372</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07184992971853338</v>
+        <v>0.07126994820489399</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3542351722717285</v>
+        <v>0.3369922637939453</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.03751241444670077</v>
+        <v>0.04753444513681204</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02874444656866811</v>
+        <v>0.001236738648697461</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1214495067242076</v>
+        <v>0.2789041656383626</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3509867191314697</v>
+        <v>0.3367478847503662</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01113249235289721</v>
+        <v>0.350585008485885</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03798820946488157</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.05114799854058638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>0.3510234355926514</v>
+        <v>0.3362703323364258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.01223369335578811</v>
+        <v>0.08145463870615929</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0380923770720104</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06244444433649448</v>
+        <v>0.2473039576215732</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3669173717498779</v>
+        <v>0.3366072177886963</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.02478035828502972</v>
+        <v>0.09703430998056317</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03157566826448637</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06512730793347375</v>
+        <v>0.1684226172530906</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3525388240814209</v>
+        <v>0.3372595310211182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03564865852096275</v>
+        <v>0.0336177041996934</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02892383598071027</v>
+        <v>0.003433419696412594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00771663227476364</v>
+        <v>0.2855548964159181</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3558177947998047</v>
+        <v>0.3377110958099365</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0183514164901726</v>
+        <v>0.2016142343072393</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03385695352618016</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04143586697842101</v>
+        <v>0.08191247870157022</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3539834022521973</v>
+        <v>0.3372831344604492</v>
       </c>
     </row>
   </sheetData>

--- a/tables/NSGA2_table.xlsx
+++ b/tables/NSGA2_table.xlsx
@@ -457,420 +457,422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02529776206831398</v>
+        <v>0.03485259399980044</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002455343710418116</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.218537049278086</v>
+        <v>0.1849949907690629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3418350219726562</v>
+        <v>0.311781644821167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.04463376223139923</v>
+        <v>0.16186898809804</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0008650063869981206</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2274334821515518</v>
+        <v>0.1256506516696367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3425419330596924</v>
+        <v>0.3095216751098633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05459702560906282</v>
+        <v>0.07829322374654513</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0001433275979338297</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2950256730661995</v>
+        <v>0.1822017642087545</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3456907272338867</v>
+        <v>0.308391809463501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.05118038318710977</v>
+        <v>0.02862981578608867</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.003066624091328469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.169038603418731</v>
+        <v>0.2158177576031336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3443689346313477</v>
+        <v>0.3094394207000732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03446743507471235</v>
+        <v>0.02252309180718962</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001296880303608739</v>
+        <v>0.002393687050278031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2306719257105379</v>
+        <v>0.2147878663551724</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3373932838439941</v>
+        <v>0.3139016628265381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1142541965795849</v>
+        <v>0.0404493001391491</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0017400296276342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1224532246911015</v>
+        <v>0.2916388933298641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3377668857574463</v>
+        <v>0.3098411560058594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06657277071070167</v>
+        <v>0.02894951178430265</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.004252430031783185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1695430151023139</v>
+        <v>0.2675963503874291</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3374738693237305</v>
+        <v>0.3107783794403076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1684162550595936</v>
+        <v>0.02312859157232626</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.001531612109591275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2391819727009813</v>
+        <v>0.2250300690348934</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3379194736480713</v>
+        <v>0.3097159862518311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1936523375267723</v>
+        <v>0.04543456460639504</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.003039674016510171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06502705814982497</v>
+        <v>0.2871347301155025</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3384270668029785</v>
+        <v>0.309523344039917</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0402772774172282</v>
+        <v>0.2582584377597201</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00286451504538355</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2622694072177487</v>
+        <v>0.01702068009907281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.336721658706665</v>
+        <v>0.3105335235595703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1630720587632125</v>
+        <v>0.05735323041986198</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1590463548931175</v>
+        <v>0.3017222304189039</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3378803730010986</v>
+        <v>0.311215877532959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04266468915056142</v>
+        <v>0.109292923706497</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001712340311951477</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1752331792450016</v>
+        <v>0.1425147444601985</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3366274833679199</v>
+        <v>0.3097274303436279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03134489928953774</v>
+        <v>0.04394646998081573</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00235246863390997</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2525365238459605</v>
+        <v>0.1873796176691116</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3359951972961426</v>
+        <v>0.3083879947662354</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4511588977545308</v>
+        <v>0.05105491252268367</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.003479900655725916</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006784778731624265</v>
+        <v>0.2859246209817948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3368887901306152</v>
+        <v>0.3078160285949707</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03393062183385857</v>
+        <v>0.02193561658002515</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002596052220014263</v>
+        <v>0.005223891249287405</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239207378178509</v>
+        <v>0.2565783730603342</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3387625217437744</v>
+        <v>0.3106732368469238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03979311036069148</v>
+        <v>0.2963383926083691</v>
       </c>
       <c r="B17" t="n">
-        <v>0.004490198716752852</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2851999902444246</v>
+        <v>0.01006738740033403</v>
       </c>
       <c r="D17" t="n">
-        <v>0.337268590927124</v>
+        <v>0.3087046146392822</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.04159751620954757</v>
+        <v>0.02324077203436703</v>
       </c>
       <c r="B18" t="n">
-        <v>0.000641295723090975</v>
+        <v>0.0002801715624856836</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2550529964308669</v>
+        <v>0.2018301406280878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.336763858795166</v>
+        <v>0.3080437183380127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.07546462839452593</v>
+        <v>0.1073683346515434</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1737870402407185</v>
+        <v>0.3884615282883115</v>
       </c>
       <c r="D19" t="n">
-        <v>0.33811354637146</v>
+        <v>0.3078951835632324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.04169360877626811</v>
+        <v>0.06216983042071986</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1714412141654228</v>
+        <v>0.1161198193969053</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3368198871612549</v>
+        <v>0.3087868690490723</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.04222814719467281</v>
+        <v>0.03790929910465519</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003967413425514431</v>
+        <v>0.001338155241200218</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2664929772567778</v>
+        <v>0.295484034146361</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3351242542266846</v>
+        <v>0.3116519451141357</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0382340043171995</v>
+        <v>0.02669182998679192</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.0008103811036437938</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2070745558917406</v>
+        <v>0.2231393957770533</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3359251022338867</v>
+        <v>0.3082973957061768</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05034436016551276</v>
+        <v>0.03468831811624942</v>
       </c>
       <c r="B23" t="n">
-        <v>0.002098872261260772</v>
+        <v>0.001903147606698677</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2702080686765619</v>
+        <v>0.2102105588518557</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3366670608520508</v>
+        <v>0.3092148303985596</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1509679436875473</v>
+        <v>0.03929398306641817</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.002200472276622052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09571001286408792</v>
+        <v>0.2910164800047265</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3368556499481201</v>
+        <v>0.3210642337799072</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2380682195439401</v>
+        <v>0.02284116789471704</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.003470223937591435</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07126994820489399</v>
+        <v>0.2348123165875099</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3369922637939453</v>
+        <v>0.3095836639404297</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04753444513681204</v>
+        <v>0.02301003097402345</v>
       </c>
       <c r="B26" t="n">
-        <v>0.001236738648697461</v>
+        <v>0.002497741939976262</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2789041656383626</v>
+        <v>0.226120865112193</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3367478847503662</v>
+        <v>0.309361457824707</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.350585008485885</v>
+        <v>0.03629350563831644</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>0.002360573479644843</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2267043352898683</v>
+      </c>
       <c r="D27" t="n">
-        <v>0.3362703323364258</v>
+        <v>0.3087306022644043</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.08145463870615929</v>
+        <v>0.1090413599332762</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2473039576215732</v>
+        <v>0.09600923916421096</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3366072177886963</v>
+        <v>0.3092186450958252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.09703430998056317</v>
+        <v>0.05940238761893493</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.001093985510016028</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1684226172530906</v>
+        <v>0.2611957029280764</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3372595310211182</v>
+        <v>0.3090286254882812</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0336177041996934</v>
+        <v>0.08606974873702763</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003433419696412594</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2855548964159181</v>
+        <v>0.1271032939455549</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3377110958099365</v>
+        <v>0.3079826831817627</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2016142343072393</v>
+        <v>0.04163059112425208</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.004556023395831268</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08191247870157022</v>
+        <v>0.2682646560974124</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3372831344604492</v>
+        <v>0.3087384700775146</v>
       </c>
     </row>
   </sheetData>

--- a/tables/NSGA2_table.xlsx
+++ b/tables/NSGA2_table.xlsx
@@ -457,420 +457,404 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02529776206831398</v>
+        <v>0.1190823490888861</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002455343710418116</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.218537049278086</v>
+        <v>0.01512961812144672</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3418350219726562</v>
+        <v>0.3385956287384033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.04463376223139923</v>
+        <v>0.1274433754514289</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0008650063869981206</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2274334821515518</v>
+        <v>0.0147806854655696</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3425419330596924</v>
+        <v>0.3368868827819824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05459702560906282</v>
+        <v>0.1152575877986164</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0001433275979338297</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2950256730661995</v>
+        <v>0.004070491020157828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3456907272338867</v>
+        <v>0.3361129760742188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.05118038318710977</v>
+        <v>0.1227376159568139</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.169038603418731</v>
+        <v>0.01226811596526159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3443689346313477</v>
+        <v>0.3382866382598877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03446743507471235</v>
+        <v>0.1120495569969701</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001296880303608739</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2306719257105379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.3373932838439941</v>
+        <v>0.3374431133270264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1142541965795849</v>
+        <v>0.1112730738997711</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.1224532246911015</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.3377668857574463</v>
+        <v>0.3369612693786621</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06657277071070167</v>
+        <v>0.1199861901864566</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.1695430151023139</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0.3374738693237305</v>
+        <v>0.3379871845245361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1684162550595936</v>
+        <v>0.183833866321488</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.2391819727009813</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0.3379194736480713</v>
+        <v>0.3392612934112549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1936523375267723</v>
+        <v>0.1127301599695071</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06502705814982497</v>
+        <v>0.002910793605088265</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3384270668029785</v>
+        <v>0.3377768993377686</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0402772774172282</v>
+        <v>0.1632646677108247</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00286451504538355</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2622694072177487</v>
+        <v>0.013275277005696</v>
       </c>
       <c r="D11" t="n">
-        <v>0.336721658706665</v>
+        <v>0.3371882438659668</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1630720587632125</v>
+        <v>0.1711967577349697</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1590463548931175</v>
+        <v>0.01764434334509609</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3378803730010986</v>
+        <v>0.336550235748291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04266468915056142</v>
+        <v>0.1144946836337031</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001712340311951477</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1752331792450016</v>
+        <v>0.01225125613030712</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3366274833679199</v>
+        <v>0.3362317085266113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03134489928953774</v>
+        <v>0.1593107515961583</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00235246863390997</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2525365238459605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.3359951972961426</v>
+        <v>0.3367221355438232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4511588977545308</v>
+        <v>0.1151777018476302</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.006784778731624265</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0.3368887901306152</v>
+        <v>0.3363025188446045</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03393062183385857</v>
+        <v>0.0607410456393245</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002596052220014263</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239207378178509</v>
+        <v>0.143643909393625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3387625217437744</v>
+        <v>0.3368430137634277</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03979311036069148</v>
+        <v>0.3090774641782348</v>
       </c>
       <c r="B17" t="n">
-        <v>0.004490198716752852</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2851999902444246</v>
+        <v>0.0149014761743111</v>
       </c>
       <c r="D17" t="n">
-        <v>0.337268590927124</v>
+        <v>0.3360950946807861</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.04159751620954757</v>
+        <v>0.129790499735388</v>
       </c>
       <c r="B18" t="n">
-        <v>0.000641295723090975</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2550529964308669</v>
+        <v>0.00577271816837734</v>
       </c>
       <c r="D18" t="n">
-        <v>0.336763858795166</v>
+        <v>0.3357288837432861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.07546462839452593</v>
+        <v>0.05686043574380913</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1737870402407185</v>
+        <v>0.1741806356401846</v>
       </c>
       <c r="D19" t="n">
-        <v>0.33811354637146</v>
+        <v>0.3348405361175537</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.04169360877626811</v>
+        <v>0.05982707409466033</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1714412141654228</v>
+        <v>0.2593783333550208</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3368198871612549</v>
+        <v>0.3373763561248779</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.04222814719467281</v>
+        <v>0.1443615919315634</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003967413425514431</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2664929772567778</v>
+        <v>0.00591039033777066</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3351242542266846</v>
+        <v>0.3340070247650146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0382340043171995</v>
+        <v>0.1157394615521697</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2070745558917406</v>
+        <v>0.0008025202358094568</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3359251022338867</v>
+        <v>0.3339707851409912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05034436016551276</v>
+        <v>0.1515968142361813</v>
       </c>
       <c r="B23" t="n">
-        <v>0.002098872261260772</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2702080686765619</v>
+        <v>0.01915912161061204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3366670608520508</v>
+        <v>0.3357257843017578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1509679436875473</v>
+        <v>0.1315356477647462</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.09571001286408792</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.3368556499481201</v>
+        <v>0.3370652198791504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2380682195439401</v>
+        <v>0.1123738612364973</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.07126994820489399</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>0.3369922637939453</v>
+        <v>0.3376250267028809</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04753444513681204</v>
+        <v>0.1225935944240925</v>
       </c>
       <c r="B26" t="n">
-        <v>0.001236738648697461</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2789041656383626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>0.3367478847503662</v>
+        <v>0.3352737426757812</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.350585008485885</v>
+        <v>0.1112889086534236</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0.006368617165649838</v>
+      </c>
       <c r="D27" t="n">
-        <v>0.3362703323364258</v>
+        <v>0.3363785743713379</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.08145463870615929</v>
+        <v>0.1182649936923106</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2473039576215732</v>
+        <v>0.006074001596532254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3366072177886963</v>
+        <v>0.3362240791320801</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.09703430998056317</v>
+        <v>0.1144762227067449</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1684226172530906</v>
+        <v>0.009194350078226846</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3372595310211182</v>
+        <v>0.3353753089904785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0336177041996934</v>
+        <v>0.112633046811754</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003433419696412594</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2855548964159181</v>
+        <v>0.007737085756456086</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3377110958099365</v>
+        <v>0.3369266986846924</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2016142343072393</v>
+        <v>0.1120609026356146</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08191247870157022</v>
+        <v>0.001893559219987829</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3372831344604492</v>
+        <v>0.3352079391479492</v>
       </c>
     </row>
   </sheetData>
